--- a/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\windev\Visual Studio 2019\[Migrato in GITLAB] Aria_V3\DOCUMENTAZIONE\ExternalResource\Fascicolo 2.0\_FSE 2\Accreditamento\Test\Aggiornamento_2025_12_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF091FFD-566F-42B4-A00E-56567DF88A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83DC514-5926-4907-A05A-14CDCD892315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$193</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="499">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1860,23 +1860,6 @@
     <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.7aa681b353^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:20Z</t>
-  </si>
-  <si>
-    <t>02f491225d6ebd84</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.1d86d32108^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-07-11T16:11:19Z</t>
   </si>
   <si>
@@ -1886,22 +1869,6 @@
     <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.80c4c95960^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:18Z</t>
-  </si>
-  <si>
-    <t>5c7dc06278df656d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.5c429989bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-07-11T16:12:05Z</t>
   </si>
   <si>
@@ -1918,40 +1885,6 @@
   </si>
   <si>
     <t>9b2143c4167370ca</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:51Z</t>
-  </si>
-  <si>
-    <t>85b1cd6d43c4522a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.dbf7eab11c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:55Z</t>
-  </si>
-  <si>
-    <t>5b572eaf879290fb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.6f67e39998^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Si procede alla verifica della connettività tramite intervento manuale e successivamente viene ritrasmesso il documento.</t>
@@ -2121,7 +2054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2440,21 +2373,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -2482,49 +2400,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2532,7 +2407,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2658,6 +2533,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2679,295 +2566,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4419,13 +4017,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W754"/>
+  <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
+      <selection pane="bottomRight" activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4467,14 +4065,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="D2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="54"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4495,14 +4093,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="54"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4523,12 +4121,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4550,12 +4148,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="54"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4576,8 +4174,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4839,42 +4437,42 @@
       <c r="E13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="126">
+      <c r="F13" s="47">
         <v>45484</v>
       </c>
-      <c r="G13" s="127" t="s">
-        <v>504</v>
-      </c>
-      <c r="H13" s="127" t="s">
-        <v>505</v>
-      </c>
-      <c r="I13" s="127" t="s">
-        <v>503</v>
+      <c r="G13" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>493</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
-      <c r="M13" s="139" t="s">
+      <c r="M13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="139" t="s">
+      <c r="N13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="139" t="s">
+      <c r="O13" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P13" s="139" t="s">
+      <c r="P13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" s="139" t="s">
+      <c r="Q13" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R13" s="139" t="s">
+      <c r="R13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S13" s="139" t="s">
+      <c r="S13" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T13" s="38"/>
@@ -5159,42 +4757,42 @@
       <c r="E21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="123">
+      <c r="F21" s="47">
         <v>45484</v>
       </c>
-      <c r="G21" s="124" t="s">
-        <v>501</v>
-      </c>
-      <c r="H21" s="124" t="s">
-        <v>502</v>
-      </c>
-      <c r="I21" s="124" t="s">
-        <v>503</v>
+      <c r="G21" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>493</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="140" t="s">
+      <c r="M21" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="140" t="s">
+      <c r="N21" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="140" t="s">
+      <c r="O21" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P21" s="140" t="s">
+      <c r="P21" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="140" t="s">
+      <c r="Q21" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R21" s="140" t="s">
+      <c r="R21" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S21" s="140" t="s">
+      <c r="S21" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T21" s="38"/>
@@ -5483,11 +5081,11 @@
       <c r="E29" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="F29" s="121">
+      <c r="F29" s="47">
         <v>45484</v>
       </c>
-      <c r="G29" s="122" t="s">
-        <v>500</v>
+      <c r="G29" s="48" t="s">
+        <v>490</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="42"/>
@@ -5496,26 +5094,26 @@
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="141" t="s">
+      <c r="M29" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N29" s="141" t="s">
+      <c r="N29" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="141" t="s">
+      <c r="O29" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P29" s="141" t="s">
+      <c r="P29" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q29" s="141" t="s">
+      <c r="Q29" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R29" s="141" t="s">
+      <c r="R29" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S29" s="141" t="s">
-        <v>516</v>
+      <c r="S29" s="50" t="s">
+        <v>496</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
@@ -9273,70 +8871,70 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:23" s="113" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="120">
-        <v>174</v>
-      </c>
-      <c r="B131" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="C131" s="116" t="s">
+    <row r="131" spans="1:23" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="35">
+        <v>175</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D131" s="116" t="s">
-        <v>495</v>
-      </c>
-      <c r="E131" s="117" t="s">
-        <v>496</v>
-      </c>
-      <c r="F131" s="118">
+      <c r="D131" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="F131" s="47">
         <v>45484</v>
       </c>
-      <c r="G131" s="119" t="s">
-        <v>497</v>
-      </c>
-      <c r="H131" s="119" t="s">
-        <v>498</v>
-      </c>
-      <c r="I131" s="119" t="s">
-        <v>499</v>
-      </c>
-      <c r="J131" s="62" t="s">
+      <c r="G131" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="H131" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="I131" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="J131" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K131" s="62"/>
-      <c r="L131" s="62"/>
-      <c r="M131" s="142" t="s">
+      <c r="K131" s="38"/>
+      <c r="L131" s="38"/>
+      <c r="M131" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N131" s="142" t="s">
+      <c r="N131" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O131" s="142" t="s">
+      <c r="O131" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P131" s="142" t="s">
+      <c r="P131" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q131" s="142" t="s">
+      <c r="Q131" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R131" s="142" t="s">
+      <c r="R131" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S131" s="142" t="s">
+      <c r="S131" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="T131" s="62"/>
-      <c r="U131" s="63"/>
-      <c r="V131" s="64"/>
-      <c r="W131" s="62" t="s">
+      <c r="T131" s="38"/>
+      <c r="U131" s="39"/>
+      <c r="V131" s="40"/>
+      <c r="W131" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="35">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B132" s="35" t="s">
         <v>34</v>
@@ -9345,47 +8943,47 @@
         <v>46</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="F132" s="114">
+        <v>334</v>
+      </c>
+      <c r="F132" s="47">
         <v>45484</v>
       </c>
-      <c r="G132" s="115" t="s">
-        <v>492</v>
-      </c>
-      <c r="H132" s="115" t="s">
-        <v>493</v>
-      </c>
-      <c r="I132" s="115" t="s">
-        <v>494</v>
+      <c r="G132" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="H132" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="I132" s="48" t="s">
+        <v>486</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K132" s="38"/>
       <c r="L132" s="38"/>
-      <c r="M132" s="143" t="s">
+      <c r="M132" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N132" s="143" t="s">
+      <c r="N132" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O132" s="143" t="s">
+      <c r="O132" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P132" s="143" t="s">
+      <c r="P132" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q132" s="143" t="s">
+      <c r="Q132" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R132" s="143" t="s">
+      <c r="R132" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S132" s="143" t="s">
+      <c r="S132" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T132" s="38"/>
@@ -9395,70 +8993,70 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:23" s="105" customFormat="1" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="112">
-        <v>176</v>
-      </c>
-      <c r="B133" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="108" t="s">
+    <row r="133" spans="1:23" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="35">
+        <v>178</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D133" s="108" t="s">
-        <v>487</v>
-      </c>
-      <c r="E133" s="109" t="s">
-        <v>488</v>
-      </c>
-      <c r="F133" s="110">
+      <c r="D133" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E133" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="F133" s="47">
         <v>45484</v>
       </c>
-      <c r="G133" s="111" t="s">
-        <v>489</v>
-      </c>
-      <c r="H133" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="I133" s="111" t="s">
-        <v>491</v>
-      </c>
-      <c r="J133" s="62" t="s">
+      <c r="G133" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="H133" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="I133" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="J133" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K133" s="62"/>
-      <c r="L133" s="62"/>
-      <c r="M133" s="144" t="s">
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N133" s="144" t="s">
+      <c r="N133" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O133" s="144" t="s">
+      <c r="O133" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P133" s="144" t="s">
+      <c r="P133" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q133" s="144" t="s">
+      <c r="Q133" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R133" s="144" t="s">
+      <c r="R133" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S133" s="144" t="s">
+      <c r="S133" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="T133" s="62"/>
-      <c r="U133" s="63"/>
-      <c r="V133" s="64"/>
-      <c r="W133" s="62" t="s">
+      <c r="T133" s="38"/>
+      <c r="U133" s="39"/>
+      <c r="V133" s="40"/>
+      <c r="W133" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="35">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B134" s="35" t="s">
         <v>34</v>
@@ -9467,47 +9065,47 @@
         <v>46</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="F134" s="106">
+        <v>336</v>
+      </c>
+      <c r="F134" s="47">
         <v>45484</v>
       </c>
-      <c r="G134" s="107" t="s">
-        <v>484</v>
-      </c>
-      <c r="H134" s="107" t="s">
-        <v>485</v>
-      </c>
-      <c r="I134" s="107" t="s">
-        <v>486</v>
+      <c r="G134" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="H134" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="I134" s="48" t="s">
+        <v>480</v>
       </c>
       <c r="J134" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K134" s="38"/>
       <c r="L134" s="38"/>
-      <c r="M134" s="145" t="s">
+      <c r="M134" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N134" s="145" t="s">
+      <c r="N134" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O134" s="145" t="s">
+      <c r="O134" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P134" s="145" t="s">
+      <c r="P134" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q134" s="145" t="s">
+      <c r="Q134" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R134" s="145" t="s">
+      <c r="R134" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S134" s="145" t="s">
+      <c r="S134" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T134" s="38"/>
@@ -9517,9 +9115,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="35">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B135" s="35" t="s">
         <v>34</v>
@@ -9528,47 +9126,47 @@
         <v>46</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="F135" s="103">
+        <v>337</v>
+      </c>
+      <c r="F135" s="47">
         <v>45484</v>
       </c>
-      <c r="G135" s="104" t="s">
-        <v>481</v>
-      </c>
-      <c r="H135" s="104" t="s">
-        <v>482</v>
-      </c>
-      <c r="I135" s="104" t="s">
-        <v>483</v>
+      <c r="G135" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="H135" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="I135" s="48" t="s">
+        <v>478</v>
       </c>
       <c r="J135" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K135" s="38"/>
       <c r="L135" s="38"/>
-      <c r="M135" s="146" t="s">
+      <c r="M135" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N135" s="146" t="s">
+      <c r="N135" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O135" s="146" t="s">
+      <c r="O135" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P135" s="146" t="s">
+      <c r="P135" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q135" s="146" t="s">
+      <c r="Q135" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R135" s="146" t="s">
+      <c r="R135" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S135" s="146" t="s">
+      <c r="S135" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T135" s="38"/>
@@ -9578,9 +9176,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="35">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B136" s="35" t="s">
         <v>34</v>
@@ -9589,47 +9187,47 @@
         <v>46</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="F136" s="101">
+        <v>206</v>
+      </c>
+      <c r="F136" s="47">
         <v>45484</v>
       </c>
-      <c r="G136" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="H136" s="102" t="s">
-        <v>479</v>
-      </c>
-      <c r="I136" s="102" t="s">
-        <v>480</v>
+      <c r="G136" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="H136" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I136" s="48" t="s">
+        <v>475</v>
       </c>
       <c r="J136" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K136" s="38"/>
       <c r="L136" s="38"/>
-      <c r="M136" s="147" t="s">
+      <c r="M136" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N136" s="147" t="s">
+      <c r="N136" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O136" s="147" t="s">
+      <c r="O136" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P136" s="147" t="s">
+      <c r="P136" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q136" s="147" t="s">
+      <c r="Q136" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R136" s="147" t="s">
+      <c r="R136" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S136" s="147" t="s">
+      <c r="S136" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T136" s="38"/>
@@ -9641,7 +9239,7 @@
     </row>
     <row r="137" spans="1:23" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="35">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B137" s="35" t="s">
         <v>34</v>
@@ -9650,47 +9248,47 @@
         <v>46</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="F137" s="99">
+        <v>338</v>
+      </c>
+      <c r="F137" s="47">
         <v>45484</v>
       </c>
-      <c r="G137" s="100" t="s">
-        <v>476</v>
-      </c>
-      <c r="H137" s="100" t="s">
-        <v>477</v>
-      </c>
-      <c r="I137" s="100" t="s">
-        <v>478</v>
+      <c r="G137" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="H137" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="I137" s="48" t="s">
+        <v>472</v>
       </c>
       <c r="J137" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K137" s="38"/>
       <c r="L137" s="38"/>
-      <c r="M137" s="148" t="s">
+      <c r="M137" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N137" s="148" t="s">
+      <c r="N137" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O137" s="148" t="s">
+      <c r="O137" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P137" s="148" t="s">
+      <c r="P137" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q137" s="148" t="s">
+      <c r="Q137" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R137" s="148" t="s">
+      <c r="R137" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S137" s="148" t="s">
+      <c r="S137" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T137" s="38"/>
@@ -9700,9 +9298,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="35">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B138" s="35" t="s">
         <v>34</v>
@@ -9711,47 +9309,47 @@
         <v>46</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F138" s="97">
+        <v>339</v>
+      </c>
+      <c r="F138" s="47">
         <v>45484</v>
       </c>
-      <c r="G138" s="98" t="s">
-        <v>473</v>
-      </c>
-      <c r="H138" s="98" t="s">
-        <v>474</v>
-      </c>
-      <c r="I138" s="98" t="s">
-        <v>475</v>
+      <c r="G138" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="I138" s="48" t="s">
+        <v>469</v>
       </c>
       <c r="J138" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K138" s="38"/>
       <c r="L138" s="38"/>
-      <c r="M138" s="149" t="s">
+      <c r="M138" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N138" s="149" t="s">
+      <c r="N138" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O138" s="149" t="s">
+      <c r="O138" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P138" s="149" t="s">
+      <c r="P138" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q138" s="149" t="s">
+      <c r="Q138" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R138" s="149" t="s">
+      <c r="R138" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S138" s="149" t="s">
+      <c r="S138" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T138" s="38"/>
@@ -9761,9 +9359,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="35">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B139" s="35" t="s">
         <v>34</v>
@@ -9772,47 +9370,47 @@
         <v>46</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="F139" s="95">
+        <v>340</v>
+      </c>
+      <c r="F139" s="47">
         <v>45484</v>
       </c>
-      <c r="G139" s="96" t="s">
-        <v>470</v>
-      </c>
-      <c r="H139" s="96" t="s">
-        <v>471</v>
-      </c>
-      <c r="I139" s="96" t="s">
-        <v>472</v>
+      <c r="G139" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="I139" s="48" t="s">
+        <v>466</v>
       </c>
       <c r="J139" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K139" s="38"/>
       <c r="L139" s="38"/>
-      <c r="M139" s="150" t="s">
+      <c r="M139" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N139" s="150" t="s">
+      <c r="N139" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O139" s="150" t="s">
+      <c r="O139" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P139" s="150" t="s">
+      <c r="P139" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q139" s="150" t="s">
+      <c r="Q139" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R139" s="150" t="s">
+      <c r="R139" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S139" s="150" t="s">
+      <c r="S139" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T139" s="38"/>
@@ -9822,9 +9420,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="35">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B140" s="35" t="s">
         <v>34</v>
@@ -9833,47 +9431,47 @@
         <v>46</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="F140" s="93">
+        <v>341</v>
+      </c>
+      <c r="F140" s="47">
         <v>45484</v>
       </c>
-      <c r="G140" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="H140" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="I140" s="94" t="s">
-        <v>469</v>
+      <c r="G140" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="H140" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="I140" s="48" t="s">
+        <v>463</v>
       </c>
       <c r="J140" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K140" s="38"/>
       <c r="L140" s="38"/>
-      <c r="M140" s="151" t="s">
+      <c r="M140" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N140" s="151" t="s">
+      <c r="N140" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O140" s="151" t="s">
+      <c r="O140" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P140" s="151" t="s">
+      <c r="P140" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q140" s="151" t="s">
+      <c r="Q140" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R140" s="151" t="s">
+      <c r="R140" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S140" s="151" t="s">
+      <c r="S140" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T140" s="38"/>
@@ -9883,9 +9481,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="35">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B141" s="35" t="s">
         <v>34</v>
@@ -9894,47 +9492,47 @@
         <v>46</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="F141" s="91">
+        <v>342</v>
+      </c>
+      <c r="F141" s="47">
         <v>45484</v>
       </c>
-      <c r="G141" s="92" t="s">
-        <v>464</v>
-      </c>
-      <c r="H141" s="92" t="s">
-        <v>465</v>
-      </c>
-      <c r="I141" s="92" t="s">
-        <v>466</v>
+      <c r="G141" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="H141" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="I141" s="48" t="s">
+        <v>460</v>
       </c>
       <c r="J141" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K141" s="38"/>
       <c r="L141" s="38"/>
-      <c r="M141" s="152" t="s">
+      <c r="M141" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N141" s="152" t="s">
+      <c r="N141" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O141" s="152" t="s">
+      <c r="O141" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P141" s="152" t="s">
+      <c r="P141" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q141" s="152" t="s">
+      <c r="Q141" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R141" s="152" t="s">
+      <c r="R141" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S141" s="152" t="s">
+      <c r="S141" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T141" s="38"/>
@@ -9944,9 +9542,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="35">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B142" s="35" t="s">
         <v>34</v>
@@ -9955,47 +9553,47 @@
         <v>46</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="F142" s="87">
+        <v>343</v>
+      </c>
+      <c r="F142" s="37">
         <v>45484</v>
       </c>
-      <c r="G142" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="H142" s="89" t="s">
-        <v>462</v>
-      </c>
-      <c r="I142" s="90" t="s">
-        <v>463</v>
+      <c r="G142" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="H142" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="I142" s="48" t="s">
+        <v>457</v>
       </c>
       <c r="J142" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K142" s="38"/>
       <c r="L142" s="38"/>
-      <c r="M142" s="153" t="s">
+      <c r="M142" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N142" s="153" t="s">
+      <c r="N142" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O142" s="153" t="s">
+      <c r="O142" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P142" s="153" t="s">
+      <c r="P142" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q142" s="153" t="s">
+      <c r="Q142" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R142" s="153" t="s">
+      <c r="R142" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S142" s="153" t="s">
+      <c r="S142" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T142" s="38"/>
@@ -10005,9 +9603,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="35">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B143" s="35" t="s">
         <v>34</v>
@@ -10016,47 +9614,47 @@
         <v>46</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="F143" s="83">
+        <v>344</v>
+      </c>
+      <c r="F143" s="47">
         <v>45484</v>
       </c>
-      <c r="G143" s="84" t="s">
-        <v>458</v>
-      </c>
-      <c r="H143" s="85" t="s">
-        <v>459</v>
-      </c>
-      <c r="I143" s="86" t="s">
-        <v>460</v>
+      <c r="G143" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="H143" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="I143" s="48" t="s">
+        <v>454</v>
       </c>
       <c r="J143" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K143" s="38"/>
       <c r="L143" s="38"/>
-      <c r="M143" s="154" t="s">
+      <c r="M143" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N143" s="154" t="s">
+      <c r="N143" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O143" s="154" t="s">
+      <c r="O143" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P143" s="154" t="s">
+      <c r="P143" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q143" s="154" t="s">
+      <c r="Q143" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R143" s="154" t="s">
+      <c r="R143" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S143" s="154" t="s">
+      <c r="S143" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T143" s="38"/>
@@ -10066,9 +9664,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="35">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B144" s="35" t="s">
         <v>34</v>
@@ -10077,47 +9675,47 @@
         <v>46</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="F144" s="37">
+        <v>345</v>
+      </c>
+      <c r="F144" s="47">
         <v>45484</v>
       </c>
-      <c r="G144" s="80" t="s">
-        <v>455</v>
-      </c>
-      <c r="H144" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="I144" s="82" t="s">
-        <v>457</v>
+      <c r="G144" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="I144" s="48" t="s">
+        <v>451</v>
       </c>
       <c r="J144" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K144" s="38"/>
       <c r="L144" s="38"/>
-      <c r="M144" s="155" t="s">
+      <c r="M144" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="N144" s="155" t="s">
+      <c r="N144" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O144" s="155" t="s">
+      <c r="O144" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="P144" s="155" t="s">
+      <c r="P144" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q144" s="155" t="s">
+      <c r="Q144" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="R144" s="155" t="s">
+      <c r="R144" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S144" s="155" t="s">
+      <c r="S144" s="50" t="s">
         <v>449</v>
       </c>
       <c r="T144" s="38"/>
@@ -10127,9 +9725,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="35">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B145" s="35" t="s">
         <v>34</v>
@@ -10138,47 +9736,47 @@
         <v>46</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="F145" s="76">
+        <v>346</v>
+      </c>
+      <c r="F145" s="47">
         <v>45484</v>
       </c>
-      <c r="G145" s="77" t="s">
-        <v>452</v>
-      </c>
-      <c r="H145" s="78" t="s">
-        <v>453</v>
-      </c>
-      <c r="I145" s="79" t="s">
-        <v>454</v>
+      <c r="G145" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="H145" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I145" s="48" t="s">
+        <v>447</v>
       </c>
       <c r="J145" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K145" s="38"/>
       <c r="L145" s="38"/>
-      <c r="M145" s="156" t="s">
+      <c r="M145" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N145" s="156" t="s">
+      <c r="N145" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O145" s="156" t="s">
+      <c r="O145" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="P145" s="156" t="s">
+      <c r="P145" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q145" s="156" t="s">
+      <c r="Q145" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="R145" s="156" t="s">
+      <c r="R145" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S145" s="156" t="s">
+      <c r="S145" s="49" t="s">
         <v>449</v>
       </c>
       <c r="T145" s="38"/>
@@ -10188,143 +9786,95 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="35">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B146" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="F146" s="72">
-        <v>45484</v>
-      </c>
-      <c r="G146" s="73" t="s">
-        <v>445</v>
-      </c>
-      <c r="H146" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="I146" s="75" t="s">
-        <v>451</v>
-      </c>
-      <c r="J146" s="38" t="s">
-        <v>64</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="38"/>
       <c r="K146" s="38"/>
       <c r="L146" s="38"/>
-      <c r="M146" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="N146" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="O146" s="157" t="s">
-        <v>448</v>
-      </c>
-      <c r="P146" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q146" s="157" t="s">
-        <v>226</v>
-      </c>
-      <c r="R146" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="S146" s="157" t="s">
-        <v>449</v>
-      </c>
+      <c r="M146" s="38"/>
+      <c r="N146" s="38"/>
+      <c r="O146" s="38"/>
+      <c r="P146" s="38"/>
+      <c r="Q146" s="38"/>
+      <c r="R146" s="38"/>
+      <c r="S146" s="38"/>
       <c r="T146" s="38"/>
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="35">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="B147" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="F147" s="66">
-        <v>45484</v>
-      </c>
-      <c r="G147" s="67" t="s">
-        <v>445</v>
-      </c>
-      <c r="H147" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="I147" s="69" t="s">
-        <v>447</v>
-      </c>
-      <c r="J147" s="38" t="s">
-        <v>64</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="37"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="38"/>
       <c r="K147" s="38"/>
       <c r="L147" s="38"/>
-      <c r="M147" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N147" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O147" s="70" t="s">
-        <v>448</v>
-      </c>
-      <c r="P147" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q147" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="R147" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="S147" s="71" t="s">
-        <v>449</v>
-      </c>
+      <c r="M147" s="38"/>
+      <c r="N147" s="38"/>
+      <c r="O147" s="38"/>
+      <c r="P147" s="38"/>
+      <c r="Q147" s="38"/>
+      <c r="R147" s="38"/>
+      <c r="S147" s="38"/>
       <c r="T147" s="38"/>
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="35">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="B148" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -10349,19 +9899,19 @@
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="35">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="B149" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -10386,7 +9936,7 @@
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="35">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B150" s="35" t="s">
         <v>34</v>
@@ -10395,10 +9945,10 @@
         <v>241</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -10423,7 +9973,7 @@
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="35">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B151" s="35" t="s">
         <v>34</v>
@@ -10432,10 +9982,10 @@
         <v>241</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -10455,12 +10005,12 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="35">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B152" s="35" t="s">
         <v>34</v>
@@ -10469,10 +10019,10 @@
         <v>241</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -10492,12 +10042,12 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="35">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B153" s="35" t="s">
         <v>34</v>
@@ -10506,10 +10056,10 @@
         <v>241</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -10534,7 +10084,7 @@
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="35">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B154" s="35" t="s">
         <v>34</v>
@@ -10543,10 +10093,10 @@
         <v>241</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -10571,7 +10121,7 @@
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="35">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B155" s="35" t="s">
         <v>34</v>
@@ -10580,10 +10130,10 @@
         <v>241</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>426</v>
+        <v>264</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -10608,7 +10158,7 @@
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="35">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B156" s="35" t="s">
         <v>34</v>
@@ -10617,10 +10167,10 @@
         <v>241</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -10645,7 +10195,7 @@
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="35">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B157" s="35" t="s">
         <v>34</v>
@@ -10654,10 +10204,10 @@
         <v>241</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -10682,7 +10232,7 @@
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="35">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B158" s="35" t="s">
         <v>34</v>
@@ -10691,10 +10241,10 @@
         <v>241</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -10719,7 +10269,7 @@
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="35">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B159" s="35" t="s">
         <v>34</v>
@@ -10728,10 +10278,10 @@
         <v>241</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -10756,7 +10306,7 @@
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="35">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B160" s="35" t="s">
         <v>34</v>
@@ -10765,10 +10315,10 @@
         <v>241</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -10793,7 +10343,7 @@
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="35">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B161" s="35" t="s">
         <v>34</v>
@@ -10802,10 +10352,10 @@
         <v>241</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -10830,7 +10380,7 @@
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="35">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B162" s="35" t="s">
         <v>34</v>
@@ -10839,10 +10389,10 @@
         <v>241</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -10867,7 +10417,7 @@
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="35">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B163" s="35" t="s">
         <v>34</v>
@@ -10876,10 +10426,10 @@
         <v>241</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -10904,19 +10454,19 @@
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="35">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B164" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -10936,24 +10486,24 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="35">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B165" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10973,24 +10523,24 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="35">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B166" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -11015,19 +10565,19 @@
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="35">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B167" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -11052,19 +10602,19 @@
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="35">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B168" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -11087,21 +10637,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="35">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B169" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -11124,21 +10674,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="35">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B170" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -11163,19 +10713,19 @@
     </row>
     <row r="171" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="35">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B171" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -11198,21 +10748,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="35">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B172" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -11235,21 +10785,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="35">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B173" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -11272,21 +10822,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="35">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B174" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -11309,21 +10859,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="35">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B175" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -11348,93 +10898,93 @@
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="35">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B176" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
-      <c r="I176" s="42"/>
+        <v>381</v>
+      </c>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="35"/>
       <c r="J176" s="38"/>
       <c r="K176" s="38"/>
-      <c r="L176" s="38"/>
+      <c r="L176" s="35"/>
       <c r="M176" s="38"/>
       <c r="N176" s="38"/>
-      <c r="O176" s="38"/>
+      <c r="O176" s="35"/>
       <c r="P176" s="38"/>
       <c r="Q176" s="38"/>
       <c r="R176" s="38"/>
-      <c r="S176" s="38"/>
+      <c r="S176" s="35"/>
       <c r="T176" s="38"/>
-      <c r="U176" s="39"/>
-      <c r="V176" s="40"/>
-      <c r="W176" s="38" t="s">
-        <v>36</v>
+      <c r="U176" s="35"/>
+      <c r="V176" s="35"/>
+      <c r="W176" s="35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="35">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B177" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
-      <c r="I177" s="42"/>
+        <v>386</v>
+      </c>
+      <c r="F177" s="35"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="35"/>
       <c r="J177" s="38"/>
       <c r="K177" s="38"/>
-      <c r="L177" s="38"/>
+      <c r="L177" s="35"/>
       <c r="M177" s="38"/>
       <c r="N177" s="38"/>
-      <c r="O177" s="38"/>
+      <c r="O177" s="35"/>
       <c r="P177" s="38"/>
       <c r="Q177" s="38"/>
       <c r="R177" s="38"/>
-      <c r="S177" s="38"/>
+      <c r="S177" s="35"/>
       <c r="T177" s="38"/>
-      <c r="U177" s="39"/>
-      <c r="V177" s="40"/>
-      <c r="W177" s="38" t="s">
-        <v>36</v>
+      <c r="U177" s="35"/>
+      <c r="V177" s="35"/>
+      <c r="W177" s="35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="35">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B178" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -11459,19 +11009,19 @@
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="35">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B179" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -11496,19 +11046,19 @@
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="35">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B180" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -11533,19 +11083,19 @@
     </row>
     <row r="181" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="35">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B181" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="E181" s="43" t="s">
-        <v>390</v>
+        <v>401</v>
+      </c>
+      <c r="E181" s="44" t="s">
+        <v>408</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -11568,21 +11118,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="35">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B182" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -11605,21 +11155,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="35">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B183" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="E183" s="44" t="s">
-        <v>408</v>
+        <v>395</v>
+      </c>
+      <c r="E183" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -11642,29 +11192,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="35">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B184" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
-      <c r="J184" s="38"/>
-      <c r="K184" s="38"/>
-      <c r="L184" s="35"/>
+      <c r="J184" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K184" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L184" s="38" t="s">
+        <v>497</v>
+      </c>
       <c r="M184" s="38"/>
       <c r="N184" s="38"/>
       <c r="O184" s="35"/>
@@ -11679,21 +11235,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="35">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B185" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -11716,195 +11272,169 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:23" s="125" customFormat="1" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="130">
-        <v>444</v>
-      </c>
-      <c r="B186" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="C186" s="131" t="s">
-        <v>46</v>
-      </c>
-      <c r="D186" s="131" t="s">
-        <v>506</v>
-      </c>
-      <c r="E186" s="132" t="s">
-        <v>507</v>
-      </c>
-      <c r="F186" s="129">
-        <v>45484</v>
-      </c>
-      <c r="G186" s="133" t="s">
-        <v>508</v>
-      </c>
-      <c r="H186" s="133" t="s">
-        <v>509</v>
-      </c>
-      <c r="I186" s="133" t="s">
-        <v>510</v>
-      </c>
-      <c r="J186" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K186" s="62"/>
-      <c r="L186" s="61"/>
-      <c r="M186" s="62"/>
-      <c r="N186" s="62"/>
-      <c r="O186" s="61"/>
-      <c r="P186" s="62"/>
-      <c r="Q186" s="62"/>
-      <c r="R186" s="62"/>
-      <c r="S186" s="61"/>
-      <c r="T186" s="62"/>
-      <c r="U186" s="61"/>
-      <c r="V186" s="61"/>
-      <c r="W186" s="61" t="s">
+    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="35">
+        <v>471</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="E186" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="37"/>
+      <c r="I186" s="42"/>
+      <c r="J186" s="38"/>
+      <c r="K186" s="38"/>
+      <c r="L186" s="38"/>
+      <c r="M186" s="38"/>
+      <c r="N186" s="38"/>
+      <c r="O186" s="38"/>
+      <c r="P186" s="38"/>
+      <c r="Q186" s="38"/>
+      <c r="R186" s="38"/>
+      <c r="S186" s="38"/>
+      <c r="T186" s="38"/>
+      <c r="U186" s="39"/>
+      <c r="V186" s="40"/>
+      <c r="W186" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:23" s="128" customFormat="1" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="135">
-        <v>445</v>
-      </c>
-      <c r="B187" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="C187" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="D187" s="136" t="s">
-        <v>511</v>
-      </c>
-      <c r="E187" s="137" t="s">
-        <v>512</v>
-      </c>
-      <c r="F187" s="134">
-        <v>45484</v>
-      </c>
-      <c r="G187" s="138" t="s">
-        <v>513</v>
-      </c>
-      <c r="H187" s="138" t="s">
-        <v>514</v>
-      </c>
-      <c r="I187" s="138" t="s">
-        <v>515</v>
-      </c>
-      <c r="J187" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K187" s="62"/>
-      <c r="L187" s="61"/>
-      <c r="M187" s="62"/>
-      <c r="N187" s="62"/>
-      <c r="O187" s="61"/>
-      <c r="P187" s="62"/>
-      <c r="Q187" s="62"/>
-      <c r="R187" s="62"/>
-      <c r="S187" s="61"/>
-      <c r="T187" s="62"/>
-      <c r="U187" s="61"/>
-      <c r="V187" s="61"/>
-      <c r="W187" s="61" t="s">
+    <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="35">
+        <v>472</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="E187" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="F187" s="37"/>
+      <c r="G187" s="37"/>
+      <c r="H187" s="37"/>
+      <c r="I187" s="42"/>
+      <c r="J187" s="38"/>
+      <c r="K187" s="38"/>
+      <c r="L187" s="38"/>
+      <c r="M187" s="38"/>
+      <c r="N187" s="38"/>
+      <c r="O187" s="38"/>
+      <c r="P187" s="38"/>
+      <c r="Q187" s="38"/>
+      <c r="R187" s="38"/>
+      <c r="S187" s="38"/>
+      <c r="T187" s="38"/>
+      <c r="U187" s="39"/>
+      <c r="V187" s="40"/>
+      <c r="W187" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="35">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B188" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D188" s="35" t="s">
-        <v>397</v>
+        <v>35</v>
+      </c>
+      <c r="D188" s="41" t="s">
+        <v>418</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="F188" s="35"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="35"/>
-      <c r="I188" s="35"/>
-      <c r="J188" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="K188" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="L188" s="62" t="s">
-        <v>517</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="F188" s="37"/>
+      <c r="G188" s="37"/>
+      <c r="H188" s="37"/>
+      <c r="I188" s="42"/>
+      <c r="J188" s="38"/>
+      <c r="K188" s="38"/>
+      <c r="L188" s="38"/>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
-      <c r="O188" s="35"/>
+      <c r="O188" s="38"/>
       <c r="P188" s="38"/>
       <c r="Q188" s="38"/>
       <c r="R188" s="38"/>
-      <c r="S188" s="35"/>
+      <c r="S188" s="38"/>
       <c r="T188" s="38"/>
-      <c r="U188" s="35"/>
-      <c r="V188" s="35"/>
-      <c r="W188" s="35" t="s">
+      <c r="U188" s="39"/>
+      <c r="V188" s="40"/>
+      <c r="W188" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="35">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B189" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="F189" s="35"/>
-      <c r="G189" s="35"/>
-      <c r="H189" s="35"/>
-      <c r="I189" s="35"/>
+        <v>420</v>
+      </c>
+      <c r="F189" s="37"/>
+      <c r="G189" s="37"/>
+      <c r="H189" s="37"/>
+      <c r="I189" s="42"/>
       <c r="J189" s="38"/>
       <c r="K189" s="38"/>
-      <c r="L189" s="35"/>
+      <c r="L189" s="38"/>
       <c r="M189" s="38"/>
       <c r="N189" s="38"/>
-      <c r="O189" s="35"/>
+      <c r="O189" s="38"/>
       <c r="P189" s="38"/>
       <c r="Q189" s="38"/>
       <c r="R189" s="38"/>
-      <c r="S189" s="35"/>
+      <c r="S189" s="38"/>
       <c r="T189" s="38"/>
-      <c r="U189" s="35"/>
-      <c r="V189" s="35"/>
-      <c r="W189" s="35" t="s">
+      <c r="U189" s="39"/>
+      <c r="V189" s="40"/>
+      <c r="W189" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="35">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B190" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -11924,32 +11454,38 @@
       <c r="U190" s="39"/>
       <c r="V190" s="40"/>
       <c r="W190" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="35">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B191" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
       <c r="H191" s="37"/>
       <c r="I191" s="42"/>
-      <c r="J191" s="38"/>
-      <c r="K191" s="38"/>
-      <c r="L191" s="38"/>
+      <c r="J191" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K191" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L191" s="38" t="s">
+        <v>497</v>
+      </c>
       <c r="M191" s="38"/>
       <c r="N191" s="38"/>
       <c r="O191" s="38"/>
@@ -11964,29 +11500,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="35">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B192" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D192" s="41" t="s">
-        <v>418</v>
+        <v>46</v>
+      </c>
+      <c r="D192" s="35" t="s">
+        <v>431</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
       <c r="H192" s="37"/>
       <c r="I192" s="42"/>
-      <c r="J192" s="38"/>
-      <c r="K192" s="38"/>
-      <c r="L192" s="38"/>
+      <c r="J192" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K192" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L192" s="38" t="s">
+        <v>497</v>
+      </c>
       <c r="M192" s="38"/>
       <c r="N192" s="38"/>
       <c r="O192" s="38"/>
@@ -11998,30 +11540,40 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="35">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B193" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C193" s="41" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D193" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="E193" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="F193" s="37"/>
-      <c r="G193" s="37"/>
-      <c r="H193" s="37"/>
-      <c r="I193" s="42"/>
-      <c r="J193" s="38"/>
+        <v>432</v>
+      </c>
+      <c r="E193" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="F193" s="37">
+        <v>45996</v>
+      </c>
+      <c r="G193" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H193" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I193" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="J193" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K193" s="38"/>
       <c r="L193" s="38"/>
       <c r="M193" s="38"/>
@@ -12035,178 +11587,88 @@
       <c r="U193" s="39"/>
       <c r="V193" s="40"/>
       <c r="W193" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="35">
-        <v>475</v>
-      </c>
-      <c r="B194" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C194" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D194" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="E194" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="F194" s="37"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="37"/>
-      <c r="I194" s="42"/>
-      <c r="J194" s="38"/>
-      <c r="K194" s="38"/>
-      <c r="L194" s="38"/>
-      <c r="M194" s="38"/>
-      <c r="N194" s="38"/>
-      <c r="O194" s="38"/>
-      <c r="P194" s="38"/>
-      <c r="Q194" s="38"/>
-      <c r="R194" s="38"/>
-      <c r="S194" s="38"/>
-      <c r="T194" s="38"/>
-      <c r="U194" s="39"/>
-      <c r="V194" s="40"/>
-      <c r="W194" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="35">
-        <v>476</v>
-      </c>
-      <c r="B195" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C195" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D195" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="E195" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="F195" s="37"/>
-      <c r="G195" s="37"/>
-      <c r="H195" s="37"/>
-      <c r="I195" s="42"/>
-      <c r="J195" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="K195" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="L195" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="M195" s="38"/>
-      <c r="N195" s="38"/>
-      <c r="O195" s="38"/>
-      <c r="P195" s="38"/>
-      <c r="Q195" s="38"/>
-      <c r="R195" s="38"/>
-      <c r="S195" s="38"/>
-      <c r="T195" s="38"/>
-      <c r="U195" s="39"/>
-      <c r="V195" s="40"/>
-      <c r="W195" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="35">
-        <v>477</v>
-      </c>
-      <c r="B196" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C196" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D196" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="E196" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="F196" s="37"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="37"/>
-      <c r="I196" s="42"/>
-      <c r="J196" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="K196" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="L196" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="M196" s="38"/>
-      <c r="N196" s="38"/>
-      <c r="O196" s="38"/>
-      <c r="P196" s="38"/>
-      <c r="Q196" s="38"/>
-      <c r="R196" s="38"/>
-      <c r="S196" s="38"/>
-      <c r="T196" s="38"/>
-      <c r="U196" s="39"/>
-      <c r="V196" s="40"/>
-      <c r="W196" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="35">
-        <v>478</v>
-      </c>
-      <c r="B197" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C197" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D197" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="E197" s="45" t="s">
-        <v>437</v>
-      </c>
-      <c r="F197" s="37">
-        <v>45996</v>
-      </c>
-      <c r="G197" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="H197" s="60" t="s">
-        <v>443</v>
-      </c>
-      <c r="I197" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="J197" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K197" s="38"/>
-      <c r="L197" s="38"/>
-      <c r="M197" s="38"/>
-      <c r="N197" s="38"/>
-      <c r="O197" s="38"/>
-      <c r="P197" s="38"/>
-      <c r="Q197" s="38"/>
-      <c r="R197" s="38"/>
-      <c r="S197" s="38"/>
-      <c r="T197" s="38"/>
-      <c r="U197" s="39"/>
-      <c r="V197" s="40"/>
-      <c r="W197" s="38" t="s">
-        <v>36</v>
-      </c>
+    <row r="194" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7"/>
+      <c r="R194" s="7"/>
+      <c r="S194" s="7"/>
+      <c r="T194" s="7"/>
+      <c r="U194" s="8"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="9"/>
+    </row>
+    <row r="195" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="7"/>
+      <c r="T195" s="7"/>
+      <c r="U195" s="8"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="9"/>
+    </row>
+    <row r="196" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="7"/>
+      <c r="T196" s="7"/>
+      <c r="U196" s="8"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="9"/>
+    </row>
+    <row r="197" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="7"/>
+      <c r="R197" s="7"/>
+      <c r="S197" s="7"/>
+      <c r="T197" s="7"/>
+      <c r="U197" s="8"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="9"/>
     </row>
     <row r="198" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F198" s="6"/>
@@ -14829,84 +14291,16 @@
       <c r="W328" s="9"/>
     </row>
     <row r="329" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F329" s="6"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="6"/>
-      <c r="I329" s="6"/>
-      <c r="J329" s="7"/>
-      <c r="K329" s="7"/>
-      <c r="L329" s="7"/>
-      <c r="M329" s="7"/>
-      <c r="N329" s="7"/>
-      <c r="O329" s="7"/>
-      <c r="P329" s="7"/>
-      <c r="Q329" s="7"/>
-      <c r="R329" s="7"/>
-      <c r="S329" s="7"/>
-      <c r="T329" s="7"/>
-      <c r="U329" s="8"/>
-      <c r="V329" s="2"/>
-      <c r="W329" s="9"/>
+      <c r="W329" s="7"/>
     </row>
     <row r="330" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
-      <c r="I330" s="6"/>
-      <c r="J330" s="7"/>
-      <c r="K330" s="7"/>
-      <c r="L330" s="7"/>
-      <c r="M330" s="7"/>
-      <c r="N330" s="7"/>
-      <c r="O330" s="7"/>
-      <c r="P330" s="7"/>
-      <c r="Q330" s="7"/>
-      <c r="R330" s="7"/>
-      <c r="S330" s="7"/>
-      <c r="T330" s="7"/>
-      <c r="U330" s="8"/>
-      <c r="V330" s="2"/>
-      <c r="W330" s="9"/>
+      <c r="W330" s="7"/>
     </row>
     <row r="331" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F331" s="6"/>
-      <c r="G331" s="6"/>
-      <c r="H331" s="6"/>
-      <c r="I331" s="6"/>
-      <c r="J331" s="7"/>
-      <c r="K331" s="7"/>
-      <c r="L331" s="7"/>
-      <c r="M331" s="7"/>
-      <c r="N331" s="7"/>
-      <c r="O331" s="7"/>
-      <c r="P331" s="7"/>
-      <c r="Q331" s="7"/>
-      <c r="R331" s="7"/>
-      <c r="S331" s="7"/>
-      <c r="T331" s="7"/>
-      <c r="U331" s="8"/>
-      <c r="V331" s="2"/>
-      <c r="W331" s="9"/>
+      <c r="W331" s="7"/>
     </row>
     <row r="332" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F332" s="6"/>
-      <c r="G332" s="6"/>
-      <c r="H332" s="6"/>
-      <c r="I332" s="6"/>
-      <c r="J332" s="7"/>
-      <c r="K332" s="7"/>
-      <c r="L332" s="7"/>
-      <c r="M332" s="7"/>
-      <c r="N332" s="7"/>
-      <c r="O332" s="7"/>
-      <c r="P332" s="7"/>
-      <c r="Q332" s="7"/>
-      <c r="R332" s="7"/>
-      <c r="S332" s="7"/>
-      <c r="T332" s="7"/>
-      <c r="U332" s="8"/>
-      <c r="V332" s="2"/>
-      <c r="W332" s="9"/>
+      <c r="W332" s="7"/>
     </row>
     <row r="333" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W333" s="7"/>
@@ -16147,25 +15541,13 @@
     <row r="745" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W745" s="7"/>
     </row>
-    <row r="746" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W746" s="7"/>
-    </row>
-    <row r="747" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W747" s="7"/>
-    </row>
-    <row r="748" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W748" s="7"/>
-    </row>
-    <row r="749" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W749" s="7"/>
-    </row>
+    <row r="746" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="750" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W197" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="PSS"/>
@@ -16192,19 +15574,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10:N197 J10:J197 P10:R197</xm:sqref>
+          <xm:sqref>M10:N193 J10:J193 P10:R193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T10:T197</xm:sqref>
+          <xm:sqref>T10:T193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K197</xm:sqref>
+          <xm:sqref>K10:K193</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18455,12 +17837,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18604,6 +17980,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -18614,23 +17996,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18648,6 +18013,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\windev\Visual Studio 2019\[Migrato in GITLAB] Aria_V3\DOCUMENTAZIONE\ExternalResource\Fascicolo 2.0\_FSE 2\Accreditamento\Test\Aggiornamento_2025_12_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\ACCREDITAMENTO\_2026_01_29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83DC514-5926-4907-A05A-14CDCD892315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2300EE-5EF1-4CA9-A2A4-66F0D3ED8D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="504">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1725,175 +1725,190 @@
     <t>subject_application_version: 2.99.2</t>
   </si>
   <si>
-    <t>2025-12-05T16:35:54Z</t>
-  </si>
-  <si>
-    <t>e2768f51eb906092f8e4edd87a20072d</t>
-  </si>
-  <si>
-    <t>6506aa66-1c27-4e22-abcc-e215717942f0.9c717939a2a9a31bd0fab64231e9b14ca6e2d16958b3a06f57f0701c867c9b72.8063141458^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:33Z</t>
-  </si>
-  <si>
-    <t>09ab916e7746e206</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.31ced37a52^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Errore in fase di validazione</t>
   </si>
   <si>
     <t>Si procede alla sistemazione dei dati tramite intervento manuale e ritrasmissione del documento.</t>
   </si>
   <si>
-    <t>d197f47b70eba7ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.6bdc1863d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:32Z</t>
-  </si>
-  <si>
-    <t>25208d4f7b796b0b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.3e34dff0f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:31Z</t>
-  </si>
-  <si>
-    <t>be3504aac0fb20c8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.9a48a92d83^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:30Z</t>
-  </si>
-  <si>
-    <t>e29884afa05619c7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.50feefce79^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:29Z</t>
-  </si>
-  <si>
-    <t>543336d83925c306</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.97ceac3888^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:28Z</t>
-  </si>
-  <si>
-    <t>c36924a635994895</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.f31d149afa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:27Z</t>
-  </si>
-  <si>
-    <t>aca7727a64f49040</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.1d54b24921^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:26Z</t>
-  </si>
-  <si>
-    <t>4c1562d9561b6a3d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.5d22e8c57f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:24Z</t>
-  </si>
-  <si>
-    <t>bb39340a45617fd5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b0fc2ea121^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:23Z</t>
-  </si>
-  <si>
-    <t>3460deaad52d28ae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.5a1c496944^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>67de2aeb60be2535</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.aa41f563e3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:22Z</t>
-  </si>
-  <si>
-    <t>9ec822a76cb5ae79</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b5a7900c9e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:21Z</t>
-  </si>
-  <si>
-    <t>1fa8933a8e7d9750</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.7aa681b353^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:19Z</t>
-  </si>
-  <si>
-    <t>6cc5a2d1fdbaacf5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.80c4c95960^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:12:05Z</t>
-  </si>
-  <si>
-    <t>2024-07-11T16:11:35Z</t>
-  </si>
-  <si>
-    <t>6acc6d02bf982ac2</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2024-07-11T16:11:34Z</t>
-  </si>
-  <si>
-    <t>9b2143c4167370ca</t>
-  </si>
-  <si>
     <t>Si procede alla verifica della connettività tramite intervento manuale e successivamente viene ritrasmesso il documento.</t>
   </si>
   <si>
-    <t>Caso di test non presente al momento dell'accreditamento</t>
-  </si>
-  <si>
     <t>ADL</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:48Z</t>
+  </si>
+  <si>
+    <t>39223431b0f812b67dbef6fdcf421e8c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.aa05979868^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:50Z</t>
+  </si>
+  <si>
+    <t>4c7114ea5049fd0cbe5e4e5659ebf1b6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.4f5d3f18f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>05e6a4b3ca053b74246c932f1553c2c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.23ecd5f11a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:51Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.a2e4c0e3ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b24f9cf32f8c250c63b4476658da2b0d</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:52Z</t>
+  </si>
+  <si>
+    <t>5d94c440acb848ad4fd2c4684495cb6d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.aed6d507c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:53Z</t>
+  </si>
+  <si>
+    <t>e585d53fc41affc777e569ac84f3df07</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.0043a95032^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a80ca470bd5c31200aca68a7286bbca4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.233e00a80e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:54Z</t>
+  </si>
+  <si>
+    <t>cec4ace9af4b7772579582f38a444c47</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b0f5d5384f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:55Z</t>
+  </si>
+  <si>
+    <t>d6c06edd41ed1bd8ecb2ef54a797c2cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.af543f4ff1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:56Z</t>
+  </si>
+  <si>
+    <t>fa7485490e2b3c497bda4648a9c1ae32</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.5305af7dcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f3ef9a8754b2463aa39aedd5eab2f24c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.431f79ed35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:57Z</t>
+  </si>
+  <si>
+    <t>f3b73ab01eef4d38d2b0b51e3da5dce0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.d202ab6ab1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:58Z</t>
+  </si>
+  <si>
+    <t>20c420f5dbb975062c4a39ffaf73b319</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.acd5b7d6f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T08:59:59Z</t>
+  </si>
+  <si>
+    <t>a57cb95b02968070e4838c495521082f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.0b9c0841c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>cfea79377513817fa515ae42eca7fd0a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.3a0babcede^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T09:00:00Z</t>
+  </si>
+  <si>
+    <t>ea8b199f47e837b2c86494d02e6fc8ac</t>
+  </si>
+  <si>
+    <t>2026-01-30T09:00:01Z</t>
+  </si>
+  <si>
+    <t>8f4b79b31d0d974fc030f69c200aec23</t>
+  </si>
+  <si>
+    <t>f00a53fb770f32cd8b8a6cdb0a5f4065</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.c187be9952^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T09:00:02Z</t>
+  </si>
+  <si>
+    <t>2026-01-30T09:00:03Z</t>
+  </si>
+  <si>
+    <t>6f2e64d7c1a3a89805aeb76d5461e189</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b4252c868b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T09:00:04Z</t>
+  </si>
+  <si>
+    <t>219249d6ee23684533d7ad6f386e744e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b55ea5baca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-30T09:00:05Z</t>
+  </si>
+  <si>
+    <t>6b8ac44590f1d4f1415a17382ffcc9e2</t>
+  </si>
+  <si>
+    <t>6506aa66-1c27-4e22-abcc-e215717942f0.9c717939a2a9a31bd0fab64231e9b14ca6e2d16958b3a06f57f0701c867c9b72.021bb4461a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4020,10 +4035,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A184" sqref="A184:XFD184"/>
+      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4070,7 +4085,7 @@
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="55" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="D2" s="54"/>
       <c r="F2" s="6"/>
@@ -4438,16 +4453,16 @@
         <v>43</v>
       </c>
       <c r="F13" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>64</v>
@@ -4461,7 +4476,7 @@
         <v>64</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P13" s="50" t="s">
         <v>64</v>
@@ -4473,7 +4488,7 @@
         <v>64</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
@@ -4758,16 +4773,16 @@
         <v>55</v>
       </c>
       <c r="F21" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G21" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="H21" s="48" t="s">
         <v>491</v>
       </c>
-      <c r="H21" s="48" t="s">
-        <v>492</v>
-      </c>
       <c r="I21" s="48" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>64</v>
@@ -4781,7 +4796,7 @@
         <v>64</v>
       </c>
       <c r="O21" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P21" s="50" t="s">
         <v>64</v>
@@ -4793,7 +4808,7 @@
         <v>64</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -5082,10 +5097,10 @@
         <v>425</v>
       </c>
       <c r="F29" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="42"/>
@@ -5101,7 +5116,7 @@
         <v>64</v>
       </c>
       <c r="O29" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P29" s="50" t="s">
         <v>64</v>
@@ -5113,7 +5128,7 @@
         <v>64</v>
       </c>
       <c r="S29" s="50" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
@@ -8888,16 +8903,16 @@
         <v>333</v>
       </c>
       <c r="F131" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G131" s="48" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="H131" s="48" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="I131" s="48" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="J131" s="38" t="s">
         <v>64</v>
@@ -8911,7 +8926,7 @@
         <v>64</v>
       </c>
       <c r="O131" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P131" s="50" t="s">
         <v>64</v>
@@ -8923,7 +8938,7 @@
         <v>64</v>
       </c>
       <c r="S131" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T131" s="38"/>
       <c r="U131" s="39"/>
@@ -8949,16 +8964,16 @@
         <v>334</v>
       </c>
       <c r="F132" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G132" s="48" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
@@ -8972,7 +8987,7 @@
         <v>64</v>
       </c>
       <c r="O132" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P132" s="50" t="s">
         <v>64</v>
@@ -8984,7 +8999,7 @@
         <v>64</v>
       </c>
       <c r="S132" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T132" s="38"/>
       <c r="U132" s="39"/>
@@ -9010,16 +9025,16 @@
         <v>335</v>
       </c>
       <c r="F133" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G133" s="48" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="H133" s="48" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="I133" s="48" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="J133" s="38" t="s">
         <v>64</v>
@@ -9033,7 +9048,7 @@
         <v>64</v>
       </c>
       <c r="O133" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P133" s="50" t="s">
         <v>64</v>
@@ -9045,7 +9060,7 @@
         <v>64</v>
       </c>
       <c r="S133" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T133" s="38"/>
       <c r="U133" s="39"/>
@@ -9071,16 +9086,16 @@
         <v>336</v>
       </c>
       <c r="F134" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G134" s="48" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="H134" s="48" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="I134" s="48" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J134" s="38" t="s">
         <v>64</v>
@@ -9094,7 +9109,7 @@
         <v>64</v>
       </c>
       <c r="O134" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P134" s="50" t="s">
         <v>64</v>
@@ -9106,7 +9121,7 @@
         <v>64</v>
       </c>
       <c r="S134" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T134" s="38"/>
       <c r="U134" s="39"/>
@@ -9132,16 +9147,16 @@
         <v>337</v>
       </c>
       <c r="F135" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G135" s="48" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="H135" s="48" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="I135" s="48" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="J135" s="38" t="s">
         <v>64</v>
@@ -9155,7 +9170,7 @@
         <v>64</v>
       </c>
       <c r="O135" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P135" s="50" t="s">
         <v>64</v>
@@ -9167,7 +9182,7 @@
         <v>64</v>
       </c>
       <c r="S135" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T135" s="38"/>
       <c r="U135" s="39"/>
@@ -9193,16 +9208,16 @@
         <v>206</v>
       </c>
       <c r="F136" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G136" s="48" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="H136" s="48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I136" s="48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="J136" s="38" t="s">
         <v>64</v>
@@ -9216,7 +9231,7 @@
         <v>64</v>
       </c>
       <c r="O136" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P136" s="50" t="s">
         <v>64</v>
@@ -9228,7 +9243,7 @@
         <v>64</v>
       </c>
       <c r="S136" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T136" s="38"/>
       <c r="U136" s="39"/>
@@ -9254,16 +9269,16 @@
         <v>338</v>
       </c>
       <c r="F137" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G137" s="48" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H137" s="48" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I137" s="48" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J137" s="38" t="s">
         <v>64</v>
@@ -9277,7 +9292,7 @@
         <v>64</v>
       </c>
       <c r="O137" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P137" s="50" t="s">
         <v>64</v>
@@ -9289,7 +9304,7 @@
         <v>64</v>
       </c>
       <c r="S137" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T137" s="38"/>
       <c r="U137" s="39"/>
@@ -9315,16 +9330,16 @@
         <v>339</v>
       </c>
       <c r="F138" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G138" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H138" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="H138" s="48" t="s">
+      <c r="I138" s="48" t="s">
         <v>468</v>
-      </c>
-      <c r="I138" s="48" t="s">
-        <v>469</v>
       </c>
       <c r="J138" s="38" t="s">
         <v>64</v>
@@ -9338,7 +9353,7 @@
         <v>64</v>
       </c>
       <c r="O138" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P138" s="50" t="s">
         <v>64</v>
@@ -9350,7 +9365,7 @@
         <v>64</v>
       </c>
       <c r="S138" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T138" s="38"/>
       <c r="U138" s="39"/>
@@ -9376,16 +9391,16 @@
         <v>340</v>
       </c>
       <c r="F139" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G139" s="48" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="I139" s="48" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="J139" s="38" t="s">
         <v>64</v>
@@ -9399,7 +9414,7 @@
         <v>64</v>
       </c>
       <c r="O139" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P139" s="50" t="s">
         <v>64</v>
@@ -9411,7 +9426,7 @@
         <v>64</v>
       </c>
       <c r="S139" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T139" s="38"/>
       <c r="U139" s="39"/>
@@ -9437,16 +9452,16 @@
         <v>341</v>
       </c>
       <c r="F140" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G140" s="48" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H140" s="48" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I140" s="48" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="J140" s="38" t="s">
         <v>64</v>
@@ -9460,7 +9475,7 @@
         <v>64</v>
       </c>
       <c r="O140" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P140" s="50" t="s">
         <v>64</v>
@@ -9472,7 +9487,7 @@
         <v>64</v>
       </c>
       <c r="S140" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T140" s="38"/>
       <c r="U140" s="39"/>
@@ -9498,16 +9513,16 @@
         <v>342</v>
       </c>
       <c r="F141" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G141" s="48" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="H141" s="48" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="I141" s="48" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="J141" s="38" t="s">
         <v>64</v>
@@ -9521,7 +9536,7 @@
         <v>64</v>
       </c>
       <c r="O141" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P141" s="50" t="s">
         <v>64</v>
@@ -9533,7 +9548,7 @@
         <v>64</v>
       </c>
       <c r="S141" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T141" s="38"/>
       <c r="U141" s="39"/>
@@ -9558,17 +9573,17 @@
       <c r="E142" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="F142" s="37">
-        <v>45484</v>
+      <c r="F142" s="47">
+        <v>46052</v>
       </c>
       <c r="G142" s="48" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="H142" s="48" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="I142" s="48" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="J142" s="38" t="s">
         <v>64</v>
@@ -9582,7 +9597,7 @@
         <v>64</v>
       </c>
       <c r="O142" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P142" s="50" t="s">
         <v>64</v>
@@ -9594,7 +9609,7 @@
         <v>64</v>
       </c>
       <c r="S142" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T142" s="38"/>
       <c r="U142" s="39"/>
@@ -9620,16 +9635,16 @@
         <v>344</v>
       </c>
       <c r="F143" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G143" s="48" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="H143" s="48" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="I143" s="48" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="J143" s="38" t="s">
         <v>64</v>
@@ -9643,7 +9658,7 @@
         <v>64</v>
       </c>
       <c r="O143" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P143" s="50" t="s">
         <v>64</v>
@@ -9655,7 +9670,7 @@
         <v>64</v>
       </c>
       <c r="S143" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T143" s="38"/>
       <c r="U143" s="39"/>
@@ -9681,16 +9696,16 @@
         <v>345</v>
       </c>
       <c r="F144" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G144" s="48" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="H144" s="48" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="I144" s="48" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="J144" s="38" t="s">
         <v>64</v>
@@ -9704,7 +9719,7 @@
         <v>64</v>
       </c>
       <c r="O144" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P144" s="50" t="s">
         <v>64</v>
@@ -9716,7 +9731,7 @@
         <v>64</v>
       </c>
       <c r="S144" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T144" s="38"/>
       <c r="U144" s="39"/>
@@ -9742,16 +9757,16 @@
         <v>346</v>
       </c>
       <c r="F145" s="47">
-        <v>45484</v>
+        <v>46052</v>
       </c>
       <c r="G145" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="H145" s="48" t="s">
-        <v>446</v>
+        <v>483</v>
+      </c>
+      <c r="H145" s="37" t="s">
+        <v>486</v>
       </c>
       <c r="I145" s="48" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="J145" s="38" t="s">
         <v>64</v>
@@ -9765,7 +9780,7 @@
         <v>64</v>
       </c>
       <c r="O145" s="49" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P145" s="38" t="s">
         <v>64</v>
@@ -9777,7 +9792,7 @@
         <v>64</v>
       </c>
       <c r="S145" s="49" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="T145" s="38"/>
       <c r="U145" s="39"/>
@@ -10914,7 +10929,7 @@
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
-      <c r="H176" s="35"/>
+      <c r="H176" s="37"/>
       <c r="I176" s="35"/>
       <c r="J176" s="38"/>
       <c r="K176" s="38"/>
@@ -10951,7 +10966,7 @@
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
-      <c r="H177" s="35"/>
+      <c r="H177" s="37"/>
       <c r="I177" s="35"/>
       <c r="J177" s="38"/>
       <c r="K177" s="38"/>
@@ -10988,7 +11003,7 @@
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
-      <c r="H178" s="35"/>
+      <c r="H178" s="37"/>
       <c r="I178" s="35"/>
       <c r="J178" s="38"/>
       <c r="K178" s="38"/>
@@ -11025,7 +11040,7 @@
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
-      <c r="H179" s="35"/>
+      <c r="H179" s="37"/>
       <c r="I179" s="35"/>
       <c r="J179" s="38"/>
       <c r="K179" s="38"/>
@@ -11062,7 +11077,7 @@
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
-      <c r="H180" s="35"/>
+      <c r="H180" s="37"/>
       <c r="I180" s="35"/>
       <c r="J180" s="38"/>
       <c r="K180" s="38"/>
@@ -11099,7 +11114,7 @@
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
-      <c r="H181" s="35"/>
+      <c r="H181" s="37"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38"/>
       <c r="K181" s="38"/>
@@ -11136,7 +11151,7 @@
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
+      <c r="H182" s="37"/>
       <c r="I182" s="35"/>
       <c r="J182" s="38"/>
       <c r="K182" s="38"/>
@@ -11173,7 +11188,7 @@
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
-      <c r="H183" s="35"/>
+      <c r="H183" s="37"/>
       <c r="I183" s="35"/>
       <c r="J183" s="38"/>
       <c r="K183" s="38"/>
@@ -11208,26 +11223,44 @@
       <c r="E184" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
+      <c r="F184" s="47">
+        <v>46052</v>
+      </c>
+      <c r="G184" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="H184" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="I184" s="48" t="s">
+        <v>493</v>
+      </c>
       <c r="J184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K184" s="38"/>
+      <c r="L184" s="38"/>
+      <c r="M184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O184" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="P184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q184" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="K184" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="L184" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="M184" s="38"/>
-      <c r="N184" s="38"/>
-      <c r="O184" s="35"/>
-      <c r="P184" s="38"/>
-      <c r="Q184" s="38"/>
-      <c r="R184" s="38"/>
-      <c r="S184" s="35"/>
+      <c r="R184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S184" s="49" t="s">
+        <v>443</v>
+      </c>
       <c r="T184" s="38"/>
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
@@ -11473,19 +11506,23 @@
       <c r="E191" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
-      <c r="I191" s="42"/>
+      <c r="F191" s="47">
+        <v>46052</v>
+      </c>
+      <c r="G191" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="H191" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="I191" s="42" t="s">
+        <v>497</v>
+      </c>
       <c r="J191" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="K191" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="L191" s="38" t="s">
-        <v>497</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K191" s="38"/>
+      <c r="L191" s="38"/>
       <c r="M191" s="38"/>
       <c r="N191" s="38"/>
       <c r="O191" s="38"/>
@@ -11516,19 +11553,23 @@
       <c r="E192" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
-      <c r="I192" s="42"/>
+      <c r="F192" s="47">
+        <v>46052</v>
+      </c>
+      <c r="G192" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="H192" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="I192" s="42" t="s">
+        <v>500</v>
+      </c>
       <c r="J192" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="K192" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="L192" s="38" t="s">
-        <v>497</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K192" s="38"/>
+      <c r="L192" s="38"/>
       <c r="M192" s="38"/>
       <c r="N192" s="38"/>
       <c r="O192" s="38"/>
@@ -11559,17 +11600,17 @@
       <c r="E193" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="F193" s="37">
-        <v>45996</v>
+      <c r="F193" s="47">
+        <v>46052</v>
       </c>
       <c r="G193" s="37" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="H193" s="37" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="J193" s="38" t="s">
         <v>64</v>
@@ -17837,6 +17878,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17980,12 +18027,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17996,6 +18037,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18013,23 +18071,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\ACCREDITAMENTO\_2026_01_29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\ACCREDITAMENTO\it-fse-accreditamento\GATEWAY\A1#111#ADLINGEGNERIAINFORMATICAXX\ADL\ARIA\2.99.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2300EE-5EF1-4CA9-A2A4-66F0D3ED8D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC6E0F-EFB5-412A-9E53-246AEDCDD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="508">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1740,175 +1740,187 @@
     <t>ADL</t>
   </si>
   <si>
-    <t>2026-01-30T08:59:48Z</t>
-  </si>
-  <si>
-    <t>39223431b0f812b67dbef6fdcf421e8c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.aa05979868^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:50Z</t>
-  </si>
-  <si>
-    <t>4c7114ea5049fd0cbe5e4e5659ebf1b6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.4f5d3f18f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>05e6a4b3ca053b74246c932f1553c2c1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.23ecd5f11a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:51Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.a2e4c0e3ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b24f9cf32f8c250c63b4476658da2b0d</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:52Z</t>
-  </si>
-  <si>
-    <t>5d94c440acb848ad4fd2c4684495cb6d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.aed6d507c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:53Z</t>
-  </si>
-  <si>
-    <t>e585d53fc41affc777e569ac84f3df07</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.0043a95032^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a80ca470bd5c31200aca68a7286bbca4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.233e00a80e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:54Z</t>
-  </si>
-  <si>
-    <t>cec4ace9af4b7772579582f38a444c47</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b0f5d5384f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:55Z</t>
-  </si>
-  <si>
-    <t>d6c06edd41ed1bd8ecb2ef54a797c2cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.af543f4ff1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:56Z</t>
-  </si>
-  <si>
-    <t>fa7485490e2b3c497bda4648a9c1ae32</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.5305af7dcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f3ef9a8754b2463aa39aedd5eab2f24c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.431f79ed35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:57Z</t>
-  </si>
-  <si>
-    <t>f3b73ab01eef4d38d2b0b51e3da5dce0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.d202ab6ab1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:58Z</t>
-  </si>
-  <si>
-    <t>20c420f5dbb975062c4a39ffaf73b319</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.acd5b7d6f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T08:59:59Z</t>
-  </si>
-  <si>
-    <t>a57cb95b02968070e4838c495521082f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.0b9c0841c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cfea79377513817fa515ae42eca7fd0a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.3a0babcede^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T09:00:00Z</t>
-  </si>
-  <si>
-    <t>ea8b199f47e837b2c86494d02e6fc8ac</t>
-  </si>
-  <si>
-    <t>2026-01-30T09:00:01Z</t>
-  </si>
-  <si>
-    <t>8f4b79b31d0d974fc030f69c200aec23</t>
-  </si>
-  <si>
-    <t>f00a53fb770f32cd8b8a6cdb0a5f4065</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.c187be9952^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T09:00:02Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T09:00:03Z</t>
-  </si>
-  <si>
-    <t>6f2e64d7c1a3a89805aeb76d5461e189</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b4252c868b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T09:00:04Z</t>
-  </si>
-  <si>
-    <t>219249d6ee23684533d7ad6f386e744e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.b55ea5baca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-30T09:00:05Z</t>
-  </si>
-  <si>
-    <t>6b8ac44590f1d4f1415a17382ffcc9e2</t>
-  </si>
-  <si>
-    <t>6506aa66-1c27-4e22-abcc-e215717942f0.9c717939a2a9a31bd0fab64231e9b14ca6e2d16958b3a06f57f0701c867c9b72.021bb4461a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-06T11:01:51Z</t>
+  </si>
+  <si>
+    <t>668621089e56cf6d90e09b23b6da1a09</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:52Z</t>
+  </si>
+  <si>
+    <t>52224d9f9367e6479dee0f76402e5712</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:53Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:54Z</t>
+  </si>
+  <si>
+    <t>beaf4d07052d7790511dbffb95cb64cc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.956b949312^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:35Z</t>
+  </si>
+  <si>
+    <t>f2f2d382caf666dca48d1d9dfc39aba3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.9db219241a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:38Z</t>
+  </si>
+  <si>
+    <t>62e7a8524035c2826bfb0754e44d9fed</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.1f0b428bcb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:39Z</t>
+  </si>
+  <si>
+    <t>8cdfead225eaaa6cda7ab5ce02f7fafd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.6fd4f14796^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:40Z</t>
+  </si>
+  <si>
+    <t>3c0bcbe01f977e960c648be6982469ce</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.749c6cc3b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:41Z</t>
+  </si>
+  <si>
+    <t>ac2f16ac576941821898178289aa599f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.c18566b066^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:42Z</t>
+  </si>
+  <si>
+    <t>da23ba2ab1b9f53a69fe1ebbc23ea2f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.349139e8c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:43Z</t>
+  </si>
+  <si>
+    <t>0453f05069ad5ed3ff32cce93bdd483d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.bb9d7ec866^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:44Z</t>
+  </si>
+  <si>
+    <t>ad620f95bc1152d9289cd53592ffffbe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.a9cece0d66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:45Z</t>
+  </si>
+  <si>
+    <t>f371d7449e885ec3861868938a94c991</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.87e0dc3061^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b66404baccb51ce9ed531f0d47a97dbb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.5ae8f20705^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:46Z</t>
+  </si>
+  <si>
+    <t>1a9fa776daecbf4b48953522ba503c85</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.f915e88688^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:47Z</t>
+  </si>
+  <si>
+    <t>bfe206fa30b3ff9307045b902f8fcdde</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.7b1146cc5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:48Z</t>
+  </si>
+  <si>
+    <t>cac05ac7e190edf44628362aec1a24f9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.7b8b7e15b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:49Z</t>
+  </si>
+  <si>
+    <t>1cc7c1649742489aef2021a45e7b200b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.6526f35708^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:50Z</t>
+  </si>
+  <si>
+    <t>c936d8f7a87a37fa251b4592f49236b9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.080f5abeb0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:55Z</t>
+  </si>
+  <si>
+    <t>3dcfef578c0eff84d6e67a03ed9614b8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.6f28ade170^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:56Z</t>
+  </si>
+  <si>
+    <t>dd1c475ff37a5ab38bb7912cf8ab8a2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.40bacba66d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:01:57Z</t>
+  </si>
+  <si>
+    <t>576a73e96625eecf63c61179c55543e7</t>
+  </si>
+  <si>
+    <t>6506aa66-1c27-4e22-abcc-e215717942f0.9c717939a2a9a31bd0fab64231e9b14ca6e2d16958b3a06f57f0701c867c9b72.a0cad8a039^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4035,7 +4047,7 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
@@ -4453,13 +4465,13 @@
         <v>43</v>
       </c>
       <c r="F13" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>444</v>
@@ -4773,13 +4785,13 @@
         <v>55</v>
       </c>
       <c r="F21" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>444</v>
@@ -5097,10 +5109,10 @@
         <v>425</v>
       </c>
       <c r="F29" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="42"/>
@@ -8903,16 +8915,16 @@
         <v>333</v>
       </c>
       <c r="F131" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G131" s="48" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H131" s="48" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="I131" s="48" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="J131" s="38" t="s">
         <v>64</v>
@@ -8964,16 +8976,16 @@
         <v>334</v>
       </c>
       <c r="F132" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G132" s="48" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
@@ -9025,16 +9037,16 @@
         <v>335</v>
       </c>
       <c r="F133" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G133" s="48" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="H133" s="48" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="I133" s="48" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="J133" s="38" t="s">
         <v>64</v>
@@ -9086,16 +9098,16 @@
         <v>336</v>
       </c>
       <c r="F134" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G134" s="48" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H134" s="48" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="I134" s="48" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="J134" s="38" t="s">
         <v>64</v>
@@ -9147,16 +9159,16 @@
         <v>337</v>
       </c>
       <c r="F135" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G135" s="48" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H135" s="48" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="I135" s="48" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="J135" s="38" t="s">
         <v>64</v>
@@ -9208,16 +9220,16 @@
         <v>206</v>
       </c>
       <c r="F136" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G136" s="48" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H136" s="48" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="I136" s="48" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="J136" s="38" t="s">
         <v>64</v>
@@ -9269,16 +9281,16 @@
         <v>338</v>
       </c>
       <c r="F137" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G137" s="48" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="H137" s="48" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="I137" s="48" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="J137" s="38" t="s">
         <v>64</v>
@@ -9330,16 +9342,16 @@
         <v>339</v>
       </c>
       <c r="F138" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G138" s="48" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H138" s="48" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="I138" s="48" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="J138" s="38" t="s">
         <v>64</v>
@@ -9391,16 +9403,16 @@
         <v>340</v>
       </c>
       <c r="F139" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G139" s="48" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="I139" s="48" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="J139" s="38" t="s">
         <v>64</v>
@@ -9452,16 +9464,16 @@
         <v>341</v>
       </c>
       <c r="F140" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G140" s="48" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H140" s="48" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="I140" s="48" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="J140" s="38" t="s">
         <v>64</v>
@@ -9513,16 +9525,16 @@
         <v>342</v>
       </c>
       <c r="F141" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G141" s="48" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H141" s="48" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="I141" s="48" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="J141" s="38" t="s">
         <v>64</v>
@@ -9574,16 +9586,16 @@
         <v>343</v>
       </c>
       <c r="F142" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G142" s="48" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="H142" s="48" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="I142" s="48" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="J142" s="38" t="s">
         <v>64</v>
@@ -9635,16 +9647,16 @@
         <v>344</v>
       </c>
       <c r="F143" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G143" s="48" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H143" s="48" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="I143" s="48" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="J143" s="38" t="s">
         <v>64</v>
@@ -9696,16 +9708,16 @@
         <v>345</v>
       </c>
       <c r="F144" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G144" s="48" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H144" s="48" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="I144" s="48" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="J144" s="38" t="s">
         <v>64</v>
@@ -9757,16 +9769,16 @@
         <v>346</v>
       </c>
       <c r="F145" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G145" s="48" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="H145" s="37" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="I145" s="48" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="J145" s="38" t="s">
         <v>64</v>
@@ -11224,16 +11236,16 @@
         <v>398</v>
       </c>
       <c r="F184" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="H184" s="37" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="I184" s="48" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="J184" s="38" t="s">
         <v>64</v>
@@ -11507,16 +11519,16 @@
         <v>433</v>
       </c>
       <c r="F191" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G191" s="37" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H191" s="37" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="I191" s="42" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -11554,16 +11566,16 @@
         <v>434</v>
       </c>
       <c r="F192" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -11601,16 +11613,16 @@
         <v>437</v>
       </c>
       <c r="F193" s="47">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="G193" s="37" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H193" s="37" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="J193" s="38" t="s">
         <v>64</v>
@@ -15606,8 +15618,8 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -17878,9 +17890,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18028,27 +18043,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18072,9 +18075,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ADLINGEGNERIAINFORMATICAXX/ADL/ARIA/2.99.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\ACCREDITAMENTO\it-fse-accreditamento\GATEWAY\A1#111#ADLINGEGNERIAINFORMATICAXX\ADL\ARIA\2.99.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC6E0F-EFB5-412A-9E53-246AEDCDD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F72B02-13C9-457D-A9DE-571E9DEAABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1896,24 +1896,6 @@
     <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.080f5abeb0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2026-02-06T11:01:55Z</t>
-  </si>
-  <si>
-    <t>3dcfef578c0eff84d6e67a03ed9614b8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.6f28ade170^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-02-06T11:01:56Z</t>
-  </si>
-  <si>
-    <t>dd1c475ff37a5ab38bb7912cf8ab8a2c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.40bacba66d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2026-02-06T11:01:57Z</t>
   </si>
   <si>
@@ -1921,6 +1903,24 @@
   </si>
   <si>
     <t>6506aa66-1c27-4e22-abcc-e215717942f0.9c717939a2a9a31bd0fab64231e9b14ca6e2d16958b3a06f57f0701c867c9b72.a0cad8a039^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T13:57:42Z</t>
+  </si>
+  <si>
+    <t>8c443979be9199f44aa7c555d7647dd1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.569e03155d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-12T13:57:44Z</t>
+  </si>
+  <si>
+    <t>16d9564abba1c2a40e8ca8ea7aac9c38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.2.12345.4.4.2.d44d586b8d0bfc6960cb68deb8efc3e746a94a6d211f4ee356d8cefda8dbb66a.35bd66dac6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4050,7 +4050,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
+      <selection pane="bottomRight" activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11519,16 +11519,16 @@
         <v>433</v>
       </c>
       <c r="F191" s="47">
-        <v>46059</v>
+        <v>46065</v>
       </c>
       <c r="G191" s="37" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H191" s="37" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I191" s="42" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -11566,16 +11566,16 @@
         <v>434</v>
       </c>
       <c r="F192" s="47">
-        <v>46059</v>
+        <v>46065</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -11616,13 +11616,13 @@
         <v>46059</v>
       </c>
       <c r="G193" s="37" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H193" s="37" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J193" s="38" t="s">
         <v>64</v>
@@ -17890,15 +17890,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -18042,6 +18033,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18049,14 +18049,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18070,6 +18062,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
